--- a/html/resources/aoiConditions/train2Block16.xlsx
+++ b/html/resources/aoiConditions/train2Block16.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/10_tokiti1.wav</t>
+    <t>trainingaudio/08_tipako2.wav</t>
   </si>
   <si>
     <t>trainingaudio/24_takopa1.wav</t>
   </si>
   <si>
-    <t>trainingaudio/17_kotako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/19_papipi1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/10_backpack.png</t>
+    <t>trainingaudio/05_titopo2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/27_pakapa1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/08_bell.png</t>
   </si>
   <si>
     <t>pngimages/24_banana.png</t>
   </si>
   <si>
-    <t>pngimages/17_cracker.png</t>
-  </si>
-  <si>
-    <t>pngimages/19_burger.png</t>
+    <t>pngimages/05_megaphone.png</t>
+  </si>
+  <si>
+    <t>pngimages/27_kiwi.png</t>
   </si>
 </sst>
 </file>
